--- a/data/trans_bre/P16A_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A_R-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.948924403791323</v>
+        <v>4.073756725706164</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.32124165359763</v>
+        <v>11.24975095896831</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.70160265906797</v>
+        <v>10.78888426263892</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.953926883787384</v>
+        <v>1.760919603906231</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3554451167985609</v>
+        <v>0.3557272867503085</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.152130565272928</v>
+        <v>1.160567886747992</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.192339108566109</v>
+        <v>1.196738139793261</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.08563556887442583</v>
+        <v>0.07408908698736001</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.63122667274645</v>
+        <v>11.0103767208163</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.6872592871517</v>
+        <v>17.46975945879652</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.40746536373683</v>
+        <v>16.97024067342784</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.56927329500045</v>
+        <v>11.71154822319027</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.395687821419341</v>
+        <v>1.434874408001332</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.560815487090046</v>
+        <v>2.504895279955563</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.427849896604217</v>
+        <v>2.571549678966004</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6451760815660419</v>
+        <v>0.6873857173903846</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.830868809574135</v>
+        <v>3.999826141326265</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.2346892095406</v>
+        <v>5.558745102977752</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.037369548952255</v>
+        <v>4.038075915372678</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.791341406679525</v>
+        <v>8.80825502208215</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8096395175336815</v>
+        <v>0.8376237398238869</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7374488266486571</v>
+        <v>0.7619909080808396</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5215574580232332</v>
+        <v>0.4927376429564996</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.8817091386371023</v>
+        <v>0.9096879909193387</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.494520774369509</v>
+        <v>8.276802996815844</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.56160268706259</v>
+        <v>10.64820002758257</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.708439932984451</v>
+        <v>9.675199655328489</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.10458615286155</v>
+        <v>14.30768989937257</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.958305278076307</v>
+        <v>2.759354633355275</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.291937862929538</v>
+        <v>2.290610569259028</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.860110548515279</v>
+        <v>1.824851888246527</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.996451467780946</v>
+        <v>2.050779629632137</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.871276786090802</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8.096629558959604</v>
+        <v>8.096629558959606</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.19310834526325</v>
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.368683710903426</v>
+        <v>2.265741159273874</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.519756971889639</v>
+        <v>3.498076715946572</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.822858846908749</v>
+        <v>4.182083366562898</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.700454321600261</v>
+        <v>5.897266852967094</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5437166965772937</v>
+        <v>0.4788402801778652</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5081863623293793</v>
+        <v>0.4895781556565253</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6893943106618752</v>
+        <v>0.694881644011385</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.7778790918044571</v>
+        <v>0.7998706886337134</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.291471154725722</v>
+        <v>6.226519342824297</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.87290576798736</v>
+        <v>9.257937116779882</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.721827638025589</v>
+        <v>9.885003612732637</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.14733608566021</v>
+        <v>10.20691519024207</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.290827477431402</v>
+        <v>2.222342375476218</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.978834569234231</v>
+        <v>2.013556320125288</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.826933437188322</v>
+        <v>2.904351494596471</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.930070512112062</v>
+        <v>1.881225857249725</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2013887947823257</v>
+        <v>0.5002804470929356</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.642919503167161</v>
+        <v>-1.290558589888461</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.028232418489154</v>
+        <v>0.8803054758802904</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.050217665387739</v>
+        <v>4.036271085211432</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01605572298210048</v>
+        <v>0.05146700517341142</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2010456446440091</v>
+        <v>-0.1649275036678639</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1558316488693118</v>
+        <v>0.1019808041823448</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.6376483480149967</v>
+        <v>0.6203950657486402</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.507505663501493</v>
+        <v>8.097571438778104</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.112568419636232</v>
+        <v>6.002045026682975</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.406083586784558</v>
+        <v>7.483560373654187</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.426853856828386</v>
+        <v>8.35541686352548</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.253435875589992</v>
+        <v>2.322208442748603</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.231153493254868</v>
+        <v>1.098315735396769</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.09186631144569</v>
+        <v>1.977626322057805</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.953725503839074</v>
+        <v>1.93509262041733</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.009348881125969</v>
+        <v>4.981417416300724</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.349448251050439</v>
+        <v>7.261388071926578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.500560646764652</v>
+        <v>7.499575009304545</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.553620423877729</v>
+        <v>7.576328958390008</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8966748313270587</v>
+        <v>0.9212112321829559</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9887363989009168</v>
+        <v>1.000768446620383</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.104045925851937</v>
+        <v>1.100133322419272</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.8123312928166574</v>
+        <v>0.826251714558108</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.515433919682968</v>
+        <v>7.762847867475059</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.48325584894823</v>
+        <v>10.41855559375684</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.42962064982582</v>
+        <v>10.52036024449735</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.25239361205614</v>
+        <v>10.31745945717262</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.734239898906284</v>
+        <v>1.80961853725443</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.744552932935879</v>
+        <v>1.761437920472291</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.878531916955978</v>
+        <v>1.853287673076327</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.315176903806</v>
+        <v>1.335262712557338</v>
       </c>
     </row>
     <row r="19">
